--- a/best/test_accs.xlsx
+++ b/best/test_accs.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>F1</t>
   </si>
   <si>
+    <t>F10</t>
+  </si>
+  <si>
     <t>F2</t>
   </si>
   <si>
@@ -55,10 +58,10 @@
     <t>auwise</t>
   </si>
   <si>
-    <t>concat1_aus_auwise_si_videos</t>
-  </si>
-  <si>
-    <t>concat2_aus_auwise_si_videos</t>
+    <t>concat1</t>
+  </si>
+  <si>
+    <t>concat2</t>
   </si>
   <si>
     <t>crossau</t>
@@ -449,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,566 +492,623 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7760000228881836</v>
+        <v>0.7777777910232544</v>
       </c>
       <c r="C2">
-        <v>0.7760000228881836</v>
+        <v>0.7983871102333069</v>
       </c>
       <c r="D2">
-        <v>0.7599999904632568</v>
+        <v>0.7279999852180481</v>
       </c>
       <c r="E2">
-        <v>0.7519999742507935</v>
+        <v>0.8267716765403748</v>
       </c>
       <c r="F2">
-        <v>0.7839999794960022</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="G2">
-        <v>0.7760000228881836</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="H2">
-        <v>0.7440000176429749</v>
+        <v>0.8145161271095276</v>
       </c>
       <c r="I2">
         <v>0.7519999742507935</v>
       </c>
       <c r="J2">
-        <v>0.7680000066757202</v>
+        <v>0.7368420958518982</v>
       </c>
       <c r="K2">
-        <v>0.7653333346048991</v>
+        <v>0.7519999742507935</v>
       </c>
       <c r="L2">
-        <v>0.01306395149178799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.7746294736862183</v>
+      </c>
+      <c r="M2">
+        <v>0.04094893624378726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
+        <v>0.8492063283920288</v>
+      </c>
+      <c r="C3">
+        <v>0.7983871102333069</v>
+      </c>
+      <c r="D3">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E3">
+        <v>0.8188976645469666</v>
+      </c>
+      <c r="F3">
+        <v>0.8320000171661377</v>
+      </c>
+      <c r="G3">
         <v>0.7839999794960022</v>
       </c>
-      <c r="C3">
-        <v>0.7839999794960022</v>
-      </c>
-      <c r="D3">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="E3">
-        <v>0.7680000066757202</v>
-      </c>
-      <c r="F3">
-        <v>0.7839999794960022</v>
-      </c>
-      <c r="G3">
-        <v>0.7919999957084656</v>
-      </c>
       <c r="H3">
-        <v>0.800000011920929</v>
+        <v>0.8225806355476379</v>
       </c>
       <c r="I3">
         <v>0.7760000228881836</v>
       </c>
       <c r="J3">
+        <v>0.7631579041481018</v>
+      </c>
+      <c r="K3">
+        <v>0.7680000066757202</v>
+      </c>
+      <c r="L3">
+        <v>0.8012229681015015</v>
+      </c>
+      <c r="M3">
+        <v>0.02741031692658701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.8015872836112976</v>
+      </c>
+      <c r="C4">
+        <v>0.8467742204666138</v>
+      </c>
+      <c r="D4">
+        <v>0.7919999957084656</v>
+      </c>
+      <c r="E4">
+        <v>0.8661417365074158</v>
+      </c>
+      <c r="F4">
+        <v>0.7919999957084656</v>
+      </c>
+      <c r="G4">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="H4">
+        <v>0.8790322542190552</v>
+      </c>
+      <c r="I4">
+        <v>0.7680000066757202</v>
+      </c>
+      <c r="J4">
+        <v>0.7631579041481018</v>
+      </c>
+      <c r="K4">
+        <v>0.8080000281333923</v>
+      </c>
+      <c r="L4">
+        <v>0.8116693437099457</v>
+      </c>
+      <c r="M4">
+        <v>0.03744699994052145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.841269850730896</v>
+      </c>
+      <c r="C5">
+        <v>0.8387096524238586</v>
+      </c>
+      <c r="D5">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E5">
+        <v>0.8661417365074158</v>
+      </c>
+      <c r="F5">
+        <v>0.8240000009536743</v>
+      </c>
+      <c r="G5">
+        <v>0.8080000281333923</v>
+      </c>
+      <c r="H5">
+        <v>0.8306451439857483</v>
+      </c>
+      <c r="I5">
+        <v>0.7680000066757202</v>
+      </c>
+      <c r="J5">
+        <v>0.7719298005104065</v>
+      </c>
+      <c r="K5">
+        <v>0.8240000009536743</v>
+      </c>
+      <c r="L5">
+        <v>0.8172696232795715</v>
+      </c>
+      <c r="M5">
+        <v>0.02925923659273141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.817460298538208</v>
+      </c>
+      <c r="C6">
+        <v>0.8225806355476379</v>
+      </c>
+      <c r="D6">
+        <v>0.7360000014305115</v>
+      </c>
+      <c r="E6">
+        <v>0.834645688533783</v>
+      </c>
+      <c r="F6">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="G6">
+        <v>0.7599999904632568</v>
+      </c>
+      <c r="H6">
+        <v>0.8225806355476379</v>
+      </c>
+      <c r="I6">
+        <v>0.7680000066757202</v>
+      </c>
+      <c r="J6">
+        <v>0.7368420958518982</v>
+      </c>
+      <c r="K6">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="L6">
+        <v>0.7938109338283539</v>
+      </c>
+      <c r="M6">
+        <v>0.03801424663545206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.8015872836112976</v>
+      </c>
+      <c r="C7">
+        <v>0.7741935253143311</v>
+      </c>
+      <c r="D7">
         <v>0.7760000228881836</v>
       </c>
-      <c r="K3">
-        <v>0.7804444432258606</v>
-      </c>
-      <c r="L3">
-        <v>0.01138333074065062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+      <c r="E7">
+        <v>0.7716535329818726</v>
+      </c>
+      <c r="F7">
+        <v>0.7599999904632568</v>
+      </c>
+      <c r="G7">
+        <v>0.7440000176429749</v>
+      </c>
+      <c r="H7">
+        <v>0.7661290168762207</v>
+      </c>
+      <c r="I7">
+        <v>0.7120000123977661</v>
+      </c>
+      <c r="J7">
+        <v>0.6929824352264404</v>
+      </c>
+      <c r="K7">
+        <v>0.7599999904632568</v>
+      </c>
+      <c r="L7">
+        <v>0.75585458278656</v>
+      </c>
+      <c r="M7">
+        <v>0.03039709875127783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.8095238208770752</v>
+      </c>
+      <c r="C8">
+        <v>0.7741935253143311</v>
+      </c>
+      <c r="D8">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="E8">
+        <v>0.8031495809555054</v>
+      </c>
+      <c r="F8">
+        <v>0.7680000066757202</v>
+      </c>
+      <c r="G8">
         <v>0.7760000228881836</v>
       </c>
-      <c r="C4">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="D4">
+      <c r="H8">
+        <v>0.7661290168762207</v>
+      </c>
+      <c r="I8">
+        <v>0.7039999961853027</v>
+      </c>
+      <c r="J8">
+        <v>0.719298243522644</v>
+      </c>
+      <c r="K8">
         <v>0.7599999904632568</v>
       </c>
-      <c r="E4">
-        <v>0.7039999961853027</v>
-      </c>
-      <c r="F4">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="G4">
-        <v>0.7519999742507935</v>
-      </c>
-      <c r="K4">
-        <v>0.7439999977747599</v>
-      </c>
-      <c r="L4">
-        <v>0.02653299817907612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>0.7919999957084656</v>
-      </c>
-      <c r="C5">
-        <v>0.7680000066757202</v>
-      </c>
-      <c r="D5">
-        <v>0.7440000176429749</v>
-      </c>
-      <c r="E5">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="F5">
-        <v>0.8080000281333923</v>
-      </c>
-      <c r="G5">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="H5">
-        <v>0.7519999742507935</v>
-      </c>
-      <c r="I5">
-        <v>0.7919999957084656</v>
-      </c>
-      <c r="J5">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="K5">
-        <v>0.7768888937102424</v>
-      </c>
-      <c r="L5">
-        <v>0.02570104054874978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>0.8080000281333923</v>
-      </c>
-      <c r="C6">
-        <v>0.8159999847412109</v>
-      </c>
-      <c r="D6">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="E6">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="F6">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="G6">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="H6">
-        <v>0.7919999957084656</v>
-      </c>
-      <c r="I6">
-        <v>0.7839999794960022</v>
-      </c>
-      <c r="J6">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="K6">
-        <v>0.7955555584695604</v>
-      </c>
-      <c r="L6">
-        <v>0.01513723850101544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="C7">
-        <v>0.7519999742507935</v>
-      </c>
-      <c r="D7">
-        <v>0.7680000066757202</v>
-      </c>
-      <c r="E7">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="F7">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="G7">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="H7">
-        <v>0.7200000286102295</v>
-      </c>
-      <c r="I7">
-        <v>0.7200000286102295</v>
-      </c>
-      <c r="J7">
-        <v>0.671999990940094</v>
-      </c>
-      <c r="K7">
-        <v>0.7324444452921549</v>
-      </c>
-      <c r="L7">
-        <v>0.02669627728336076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="C8">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="D8">
-        <v>0.7519999742507935</v>
-      </c>
-      <c r="E8">
-        <v>0.7519999742507935</v>
-      </c>
-      <c r="F8">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="G8">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="H8">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="I8">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="J8">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="K8">
-        <v>0.7404444350136651</v>
-      </c>
       <c r="L8">
-        <v>0.01559992981159067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.7664294183254242</v>
+      </c>
+      <c r="M8">
+        <v>0.03135087756700851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.7360000014305115</v>
+        <v>0.8095238208770752</v>
       </c>
       <c r="C9">
-        <v>0.7200000286102295</v>
+        <v>0.7822580933570862</v>
       </c>
       <c r="D9">
         <v>0.7440000176429749</v>
       </c>
       <c r="E9">
+        <v>0.8110235929489136</v>
+      </c>
+      <c r="F9">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="G9">
+        <v>0.7200000286102295</v>
+      </c>
+      <c r="H9">
+        <v>0.7580645084381104</v>
+      </c>
+      <c r="I9">
+        <v>0.7039999961853027</v>
+      </c>
+      <c r="J9">
+        <v>0.7280701994895935</v>
+      </c>
+      <c r="K9">
         <v>0.7360000014305115</v>
       </c>
-      <c r="F9">
+      <c r="L9">
+        <v>0.75769402384758</v>
+      </c>
+      <c r="M9">
+        <v>0.03558864726375067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.8253968358039856</v>
+      </c>
+      <c r="C10">
+        <v>0.7661290168762207</v>
+      </c>
+      <c r="D10">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="E10">
+        <v>0.787401556968689</v>
+      </c>
+      <c r="F10">
+        <v>0.7519999742507935</v>
+      </c>
+      <c r="G10">
+        <v>0.7760000228881836</v>
+      </c>
+      <c r="H10">
+        <v>0.7661290168762207</v>
+      </c>
+      <c r="I10">
+        <v>0.6880000233650208</v>
+      </c>
+      <c r="J10">
+        <v>0.6929824352264404</v>
+      </c>
+      <c r="K10">
         <v>0.7440000176429749</v>
       </c>
-      <c r="G9">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="H9">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="I9">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="J9">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="K9">
-        <v>0.7342222266727023</v>
-      </c>
-      <c r="L9">
-        <v>0.00732996756126626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0.7440000176429749</v>
-      </c>
-      <c r="C10">
-        <v>0.7440000176429749</v>
-      </c>
-      <c r="D10">
-        <v>0.7440000176429749</v>
-      </c>
-      <c r="E10">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="F10">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="G10">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="H10">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="I10">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="J10">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="K10">
-        <v>0.7333333359824287</v>
-      </c>
       <c r="L10">
-        <v>0.01508494479644363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.7526038885116577</v>
+      </c>
+      <c r="M10">
+        <v>0.03978825034006434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.7120000123977661</v>
+        <v>0.7777777910232544</v>
       </c>
       <c r="C11">
-        <v>0.7360000014305115</v>
+        <v>0.7580645084381104</v>
       </c>
       <c r="D11">
-        <v>0.7360000014305115</v>
+        <v>0.7680000066757202</v>
       </c>
       <c r="E11">
-        <v>0.7120000123977661</v>
+        <v>0.6614173054695129</v>
       </c>
       <c r="F11">
-        <v>0.7440000176429749</v>
+        <v>0.6639999747276306</v>
       </c>
       <c r="G11">
         <v>0.7279999852180481</v>
       </c>
       <c r="H11">
+        <v>0.7580645084381104</v>
+      </c>
+      <c r="I11">
+        <v>0.6959999799728394</v>
+      </c>
+      <c r="J11">
+        <v>0.719298243522644</v>
+      </c>
+      <c r="K11">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="L11">
+        <v>0.7258622288703919</v>
+      </c>
+      <c r="M11">
+        <v>0.03933046908920793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0.8015872836112976</v>
+      </c>
+      <c r="C12">
+        <v>0.7338709831237793</v>
+      </c>
+      <c r="D12">
+        <v>0.7680000066757202</v>
+      </c>
+      <c r="E12">
+        <v>0.787401556968689</v>
+      </c>
+      <c r="F12">
+        <v>0.7599999904632568</v>
+      </c>
+      <c r="G12">
+        <v>0.7440000176429749</v>
+      </c>
+      <c r="H12">
+        <v>0.7580645084381104</v>
+      </c>
+      <c r="I12">
         <v>0.7200000286102295</v>
       </c>
-      <c r="I11">
+      <c r="J12">
+        <v>0.6754385828971863</v>
+      </c>
+      <c r="K12">
+        <v>0.7039999961853027</v>
+      </c>
+      <c r="L12">
+        <v>0.7452362954616547</v>
+      </c>
+      <c r="M12">
+        <v>0.03632324374161065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>0.738095223903656</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>0.5920000076293945</v>
+      </c>
+      <c r="E13">
+        <v>0.7795275449752808</v>
+      </c>
+      <c r="F13">
+        <v>0.6480000019073486</v>
+      </c>
+      <c r="G13">
+        <v>0.671999990940094</v>
+      </c>
+      <c r="H13">
+        <v>0.7822580933570862</v>
+      </c>
+      <c r="I13">
         <v>0.7200000286102295</v>
       </c>
-      <c r="J11">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="K11">
-        <v>0.7297777864668105</v>
-      </c>
-      <c r="L11">
-        <v>0.01497981444968908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="C12">
+      <c r="J13">
+        <v>0.6842105388641357</v>
+      </c>
+      <c r="K13">
+        <v>0.7039999961853027</v>
+      </c>
+      <c r="L13">
+        <v>0.7070091426372528</v>
+      </c>
+      <c r="M13">
+        <v>0.05689314235442559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0.8095238208770752</v>
+      </c>
+      <c r="C14">
+        <v>0.7419354915618896</v>
+      </c>
+      <c r="D14">
+        <v>0.7519999742507935</v>
+      </c>
+      <c r="E14">
+        <v>0.7716535329818726</v>
+      </c>
+      <c r="F14">
+        <v>0.7440000176429749</v>
+      </c>
+      <c r="G14">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="H14">
+        <v>0.7822580933570862</v>
+      </c>
+      <c r="I14">
         <v>0.7200000286102295</v>
       </c>
-      <c r="D12">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="E12">
+      <c r="J14">
+        <v>0.6666666865348816</v>
+      </c>
+      <c r="K14">
         <v>0.7039999961853027</v>
       </c>
-      <c r="F12">
+      <c r="L14">
+        <v>0.7476037621498108</v>
+      </c>
+      <c r="M14">
+        <v>0.04026983998710591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>0.6666666865348816</v>
+      </c>
+      <c r="C15">
+        <v>0.6693548560142517</v>
+      </c>
+      <c r="D15">
+        <v>0.6880000233650208</v>
+      </c>
+      <c r="E15">
+        <v>0.6456692814826965</v>
+      </c>
+      <c r="F15">
+        <v>0.6320000290870667</v>
+      </c>
+      <c r="G15">
+        <v>0.6880000233650208</v>
+      </c>
+      <c r="H15">
+        <v>0.7822580933570862</v>
+      </c>
+      <c r="I15">
         <v>0.7279999852180481</v>
       </c>
-      <c r="G12">
-        <v>0.7039999961853027</v>
-      </c>
-      <c r="H12">
-        <v>0.7039999961853027</v>
-      </c>
-      <c r="I12">
-        <v>0.7039999961853027</v>
-      </c>
-      <c r="J12">
-        <v>0.7039999961853027</v>
-      </c>
-      <c r="K12">
-        <v>0.7102222243944804</v>
-      </c>
-      <c r="L12">
-        <v>0.008243218862840358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="C13">
+      <c r="J15">
+        <v>0.6666666865348816</v>
+      </c>
+      <c r="K15">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="L15">
+        <v>0.6766615688800812</v>
+      </c>
+      <c r="M15">
+        <v>0.04809233928129544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0.738095223903656</v>
+      </c>
+      <c r="C16">
+        <v>0.7741935253143311</v>
+      </c>
+      <c r="D16">
+        <v>0.7200000286102295</v>
+      </c>
+      <c r="E16">
+        <v>0.7559055089950562</v>
+      </c>
+      <c r="F16">
         <v>0.7279999852180481</v>
       </c>
-      <c r="D13">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="E13">
-        <v>0.7039999961853027</v>
-      </c>
-      <c r="F13">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="G13">
+      <c r="G16">
+        <v>0.7680000066757202</v>
+      </c>
+      <c r="H16">
+        <v>0.75</v>
+      </c>
+      <c r="I16">
+        <v>0.7519999742507935</v>
+      </c>
+      <c r="J16">
+        <v>0.7280701994895935</v>
+      </c>
+      <c r="K16">
         <v>0.7279999852180481</v>
       </c>
-      <c r="H13">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="I13">
-        <v>0.7519999742507935</v>
-      </c>
-      <c r="J13">
-        <v>0.7200000286102295</v>
-      </c>
-      <c r="K13">
-        <v>0.7244444423251681</v>
-      </c>
-      <c r="L13">
-        <v>0.01365536038582976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>0.7039999961853027</v>
-      </c>
-      <c r="C14">
-        <v>0.7039999961853027</v>
-      </c>
-      <c r="D14">
-        <v>0.6959999799728394</v>
-      </c>
-      <c r="E14">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="F14">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="G14">
-        <v>0.7200000286102295</v>
-      </c>
-      <c r="H14">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="I14">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="J14">
-        <v>0.7039999961853027</v>
-      </c>
-      <c r="K14">
-        <v>0.7084444496366713</v>
-      </c>
-      <c r="L14">
-        <v>0.00665184883459442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>0.7919999957084656</v>
-      </c>
-      <c r="C15">
-        <v>0.7440000176429749</v>
-      </c>
-      <c r="D15">
-        <v>0.7519999742507935</v>
-      </c>
-      <c r="E15">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="F15">
-        <v>0.7519999742507935</v>
-      </c>
-      <c r="G15">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="H15">
-        <v>0.7680000066757202</v>
-      </c>
-      <c r="I15">
-        <v>0.6480000019073486</v>
-      </c>
-      <c r="J15">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="K15">
-        <v>0.7395555509461297</v>
-      </c>
-      <c r="L15">
-        <v>0.03716363365648034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>0.7120000123977661</v>
-      </c>
-      <c r="C16">
-        <v>0.6959999799728394</v>
-      </c>
-      <c r="D16">
-        <v>0.6880000233650208</v>
-      </c>
-      <c r="E16">
-        <v>0.656000018119812</v>
-      </c>
-      <c r="F16">
-        <v>0.7360000014305115</v>
-      </c>
-      <c r="G16">
-        <v>0.7279999852180481</v>
-      </c>
-      <c r="H16">
-        <v>0.6240000128746033</v>
-      </c>
-      <c r="I16">
-        <v>0.7200000286102295</v>
-      </c>
-      <c r="J16">
-        <v>0.7200000286102295</v>
-      </c>
-      <c r="K16">
-        <v>0.69777778784434</v>
-      </c>
       <c r="L16">
-        <v>0.0347235972723105</v>
+        <v>0.7442264437675477</v>
+      </c>
+      <c r="M16">
+        <v>0.01762243386650192</v>
       </c>
     </row>
   </sheetData>
